--- a/BData.xlsx
+++ b/BData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,60 +436,74 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>City</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Aditya</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>19</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Aurangabad</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Aryan</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>19</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Nagpur</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>23</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Soham</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>20</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Nashik</t>
         </is>
